--- a/democratic_primary.xlsx
+++ b/democratic_primary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5473B3-CE82-FB4C-A391-C7E210A94FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F44C34-6037-454C-BA8B-35B697C9BF2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="1140" windowWidth="26560" windowHeight="15040" xr2:uid="{6DED1F92-C59B-6D44-906D-09556D255EB3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="us_win" sheetId="1" r:id="rId1"/>
     <sheet name="iowa_win" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -504,7 +504,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J6"/>
+      <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -702,7 +702,46 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7">
+        <f>A6</f>
+        <v>43629</v>
+      </c>
+      <c r="B7" s="6">
+        <f>B6</f>
+        <v>50.06</v>
+      </c>
+      <c r="C7" s="6">
+        <f>C6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <f>D6</f>
+        <v>3.37</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" ref="B7:J7" si="0">E6</f>
+        <v>7.04</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>3.3099999999999996</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>17.68</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>2.29</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>10.43</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
+        <v>2.92</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:J1">

--- a/democratic_primary.xlsx
+++ b/democratic_primary.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F44C34-6037-454C-BA8B-35B697C9BF2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744EC64A-498B-C244-9894-9C2F6978A7D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1140" windowWidth="26560" windowHeight="15040" xr2:uid="{6DED1F92-C59B-6D44-906D-09556D255EB3}"/>
+    <workbookView xWindow="980" yWindow="1140" windowWidth="26560" windowHeight="15040" activeTab="1" xr2:uid="{6DED1F92-C59B-6D44-906D-09556D255EB3}"/>
   </bookViews>
   <sheets>
     <sheet name="us_win" sheetId="1" r:id="rId1"/>
-    <sheet name="iowa_win" sheetId="2" r:id="rId2"/>
+    <sheet name="Iowa_win" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="10000"/>
@@ -503,8 +503,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -764,8 +764,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/democratic_primary.xlsx
+++ b/democratic_primary.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895B025A-5205-5644-BA99-741CAC372A1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2162D57-158C-D74F-8D27-8435BCFF9099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1140" windowWidth="26560" windowHeight="15040" xr2:uid="{6DED1F92-C59B-6D44-906D-09556D255EB3}"/>
+    <workbookView xWindow="980" yWindow="1140" windowWidth="26560" windowHeight="15040" activeTab="1" xr2:uid="{6DED1F92-C59B-6D44-906D-09556D255EB3}"/>
   </bookViews>
   <sheets>
     <sheet name="states" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="us_delegates" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -2678,7 +2678,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB173">
-            <v>13.0382</v>
+            <v>12.9236</v>
           </cell>
         </row>
         <row r="174">
@@ -2692,7 +2692,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB174">
-            <v>21.7455</v>
+            <v>21.5456</v>
           </cell>
         </row>
         <row r="175">
@@ -2706,7 +2706,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB175">
-            <v>34.406399999999998</v>
+            <v>34.001599999999996</v>
           </cell>
         </row>
         <row r="176">
@@ -2720,7 +2720,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB176">
-            <v>61.114099999999993</v>
+            <v>60.473500000000001</v>
           </cell>
         </row>
         <row r="177">
@@ -2734,7 +2734,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB177">
-            <v>520.0868999999999</v>
+            <v>513.6644</v>
           </cell>
         </row>
         <row r="178">
@@ -2748,7 +2748,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB178">
-            <v>656.76179999999988</v>
+            <v>647.97900000000004</v>
           </cell>
         </row>
         <row r="179">
@@ -2762,7 +2762,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB179">
-            <v>658.94259999999986</v>
+            <v>650.11210000000005</v>
           </cell>
         </row>
         <row r="180">
@@ -2776,7 +2776,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB180">
-            <v>886.86819999999977</v>
+            <v>875.99630000000013</v>
           </cell>
         </row>
         <row r="181">
@@ -2790,7 +2790,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB181">
-            <v>930.68709999999976</v>
+            <v>919.33480000000009</v>
           </cell>
         </row>
         <row r="182">
@@ -2804,7 +2804,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB182">
-            <v>948.67699999999979</v>
+            <v>937.13690000000008</v>
           </cell>
         </row>
         <row r="183">
@@ -2818,7 +2818,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB183">
-            <v>988.97839999999985</v>
+            <v>976.8909000000001</v>
           </cell>
         </row>
         <row r="184">
@@ -2832,7 +2832,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB184">
-            <v>1013.2880999999999</v>
+            <v>1000.7169000000001</v>
           </cell>
         </row>
         <row r="185">
@@ -2846,7 +2846,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB185">
-            <v>1227.7143999999998</v>
+            <v>1212.2585000000001</v>
           </cell>
         </row>
         <row r="186">
@@ -2860,7 +2860,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB186">
-            <v>1243.8905</v>
+            <v>1228.2534000000001</v>
           </cell>
         </row>
         <row r="187">
@@ -2874,7 +2874,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB187">
-            <v>1273.2316000000001</v>
+            <v>1257.3738000000001</v>
           </cell>
         </row>
         <row r="188">
@@ -2888,7 +2888,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB188">
-            <v>1295.2610999999999</v>
+            <v>1279.0672000000002</v>
           </cell>
         </row>
         <row r="189">
@@ -2902,7 +2902,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB189">
-            <v>1334.9722999999999</v>
+            <v>1318.1577000000002</v>
           </cell>
         </row>
         <row r="190">
@@ -2916,7 +2916,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB190">
-            <v>1398.3144</v>
+            <v>1380.4918000000002</v>
           </cell>
         </row>
         <row r="191">
@@ -2930,7 +2930,7 @@
             <v>Biden</v>
           </cell>
           <cell r="AB191">
-            <v>1400.5622000000001</v>
+            <v>1382.7156000000002</v>
           </cell>
         </row>
         <row r="192">
@@ -2944,7 +2944,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB192">
-            <v>1.7141</v>
+            <v>1.7324999999999999</v>
           </cell>
         </row>
         <row r="193">
@@ -2958,7 +2958,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB193">
-            <v>2.8613999999999997</v>
+            <v>2.8419999999999996</v>
           </cell>
         </row>
         <row r="194">
@@ -2972,7 +2972,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB194">
-            <v>4.7368999999999994</v>
+            <v>4.5716000000000001</v>
           </cell>
         </row>
         <row r="195">
@@ -2986,7 +2986,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB195">
-            <v>7.3897999999999993</v>
+            <v>7.1615000000000002</v>
           </cell>
         </row>
         <row r="196">
@@ -3000,7 +3000,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB196">
-            <v>79.053700000000006</v>
+            <v>76.792300000000012</v>
           </cell>
         </row>
         <row r="197">
@@ -3014,7 +3014,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB197">
-            <v>96.521900000000002</v>
+            <v>93.6554</v>
           </cell>
         </row>
         <row r="198">
@@ -3028,7 +3028,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB198">
-            <v>96.841800000000006</v>
+            <v>93.950800000000001</v>
           </cell>
         </row>
         <row r="199">
@@ -3042,7 +3042,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB199">
-            <v>124.7107</v>
+            <v>120.30549999999999</v>
           </cell>
         </row>
         <row r="200">
@@ -3056,7 +3056,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB200">
-            <v>130.17179999999999</v>
+            <v>125.6447</v>
           </cell>
         </row>
         <row r="201">
@@ -3070,7 +3070,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB201">
-            <v>132.94409999999999</v>
+            <v>128.31299999999999</v>
           </cell>
         </row>
         <row r="202">
@@ -3084,7 +3084,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB202">
-            <v>139.13609999999997</v>
+            <v>134.28719999999998</v>
           </cell>
         </row>
         <row r="203">
@@ -3098,7 +3098,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB203">
-            <v>143.52829999999997</v>
+            <v>138.38399999999999</v>
           </cell>
         </row>
         <row r="204">
@@ -3112,7 +3112,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB204">
-            <v>191.9248</v>
+            <v>185.5795</v>
           </cell>
         </row>
         <row r="205">
@@ -3126,7 +3126,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB205">
-            <v>194.79930000000002</v>
+            <v>188.3426</v>
           </cell>
         </row>
         <row r="206">
@@ -3140,7 +3140,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB206">
-            <v>198.48180000000002</v>
+            <v>191.80180000000001</v>
           </cell>
         </row>
         <row r="207">
@@ -3154,7 +3154,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB207">
-            <v>201.92490000000001</v>
+            <v>195.07590000000002</v>
           </cell>
         </row>
         <row r="208">
@@ -3168,7 +3168,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB208">
-            <v>208.64080000000001</v>
+            <v>201.58630000000002</v>
           </cell>
         </row>
         <row r="209">
@@ -3182,7 +3182,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB209">
-            <v>220.50060000000002</v>
+            <v>212.61</v>
           </cell>
         </row>
         <row r="210">
@@ -3196,7 +3196,7 @@
             <v>Bloomberg</v>
           </cell>
           <cell r="AB210">
-            <v>220.92020000000002</v>
+            <v>213.02130000000002</v>
           </cell>
         </row>
         <row r="211">
@@ -3210,7 +3210,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB211">
-            <v>2.0590999999999999</v>
+            <v>2.0291999999999999</v>
           </cell>
         </row>
         <row r="212">
@@ -3224,7 +3224,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB212">
-            <v>3.4397000000000002</v>
+            <v>3.4135999999999997</v>
           </cell>
         </row>
         <row r="213">
@@ -3238,7 +3238,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB213">
-            <v>5.3793000000000006</v>
+            <v>5.3900999999999994</v>
           </cell>
         </row>
         <row r="214">
@@ -3252,7 +3252,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB214">
-            <v>8.3382000000000005</v>
+            <v>8.3956999999999997</v>
           </cell>
         </row>
         <row r="215">
@@ -3266,7 +3266,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB215">
-            <v>83.551700000000011</v>
+            <v>83.166399999999996</v>
           </cell>
         </row>
         <row r="216">
@@ -3280,7 +3280,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB216">
-            <v>102.77809999999999</v>
+            <v>102.40889999999999</v>
           </cell>
         </row>
         <row r="217">
@@ -3294,7 +3294,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB217">
-            <v>103.14449999999999</v>
+            <v>102.77349999999998</v>
           </cell>
         </row>
         <row r="218">
@@ -3308,7 +3308,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB218">
-            <v>131.74719999999999</v>
+            <v>131.65519999999998</v>
           </cell>
         </row>
         <row r="219">
@@ -3322,7 +3322,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB219">
-            <v>138.41629999999998</v>
+            <v>138.29219999999998</v>
           </cell>
         </row>
         <row r="220">
@@ -3336,7 +3336,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB220">
-            <v>141.52609999999999</v>
+            <v>141.39699999999999</v>
           </cell>
         </row>
         <row r="221">
@@ -3350,7 +3350,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB221">
-            <v>148.10179999999997</v>
+            <v>147.92570000000001</v>
           </cell>
         </row>
         <row r="222">
@@ -3364,7 +3364,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB222">
-            <v>152.73089999999996</v>
+            <v>152.5453</v>
           </cell>
         </row>
         <row r="223">
@@ -3378,7 +3378,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB223">
-            <v>194.15769999999998</v>
+            <v>193.4015</v>
           </cell>
         </row>
         <row r="224">
@@ -3392,7 +3392,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB224">
-            <v>196.83829999999998</v>
+            <v>196.04650000000001</v>
           </cell>
         </row>
         <row r="225">
@@ -3406,7 +3406,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB225">
-            <v>200.66569999999999</v>
+            <v>199.7799</v>
           </cell>
         </row>
         <row r="226">
@@ -3420,7 +3420,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB226">
-            <v>204.3759</v>
+            <v>203.47199999999998</v>
           </cell>
         </row>
         <row r="227">
@@ -3434,7 +3434,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB227">
-            <v>211.99380000000002</v>
+            <v>210.98319999999998</v>
           </cell>
         </row>
         <row r="228">
@@ -3448,7 +3448,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB228">
-            <v>233.42260000000005</v>
+            <v>231.90979999999996</v>
           </cell>
         </row>
         <row r="229">
@@ -3462,7 +3462,7 @@
             <v>Booker</v>
           </cell>
           <cell r="AB229">
-            <v>233.90270000000004</v>
+            <v>232.39079999999996</v>
           </cell>
         </row>
         <row r="230">
@@ -3476,7 +3476,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB230">
-            <v>5.7264999999999997</v>
+            <v>5.6539000000000001</v>
           </cell>
         </row>
         <row r="231">
@@ -3490,7 +3490,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB231">
-            <v>8.3140000000000001</v>
+            <v>8.2080000000000002</v>
           </cell>
         </row>
         <row r="232">
@@ -3504,7 +3504,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB232">
-            <v>11.4907</v>
+            <v>11.3391</v>
           </cell>
         </row>
         <row r="233">
@@ -3518,7 +3518,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB233">
-            <v>14.956900000000001</v>
+            <v>14.855700000000001</v>
           </cell>
         </row>
         <row r="234">
@@ -3532,7 +3532,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB234">
-            <v>149.02699999999996</v>
+            <v>149.86699999999996</v>
           </cell>
         </row>
         <row r="235">
@@ -3546,7 +3546,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB235">
-            <v>178.15889999999999</v>
+            <v>179.45239999999995</v>
           </cell>
         </row>
         <row r="236">
@@ -3560,7 +3560,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB236">
-            <v>178.6883</v>
+            <v>179.99389999999997</v>
           </cell>
         </row>
         <row r="237">
@@ -3574,7 +3574,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB237">
-            <v>228.13140000000001</v>
+            <v>229.40109999999996</v>
           </cell>
         </row>
         <row r="238">
@@ -3588,7 +3588,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB238">
-            <v>235.82740000000001</v>
+            <v>237.42049999999995</v>
           </cell>
         </row>
         <row r="239">
@@ -3602,7 +3602,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB239">
-            <v>240.44510000000002</v>
+            <v>242.06249999999994</v>
           </cell>
         </row>
         <row r="240">
@@ -3616,7 +3616,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB240">
-            <v>249.97909999999999</v>
+            <v>251.64679999999993</v>
           </cell>
         </row>
         <row r="241">
@@ -3630,7 +3630,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB241">
-            <v>257.02319999999997</v>
+            <v>258.81739999999991</v>
           </cell>
         </row>
         <row r="242">
@@ -3644,7 +3644,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB242">
-            <v>324.9957</v>
+            <v>327.38569999999987</v>
           </cell>
         </row>
         <row r="243">
@@ -3658,7 +3658,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB243">
-            <v>329.47039999999998</v>
+            <v>331.89269999999988</v>
           </cell>
         </row>
         <row r="244">
@@ -3672,7 +3672,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB244">
-            <v>343.49109999999996</v>
+            <v>345.93999999999988</v>
           </cell>
         </row>
         <row r="245">
@@ -3686,7 +3686,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB245">
-            <v>348.45759999999996</v>
+            <v>350.9722999999999</v>
           </cell>
         </row>
         <row r="246">
@@ -3700,7 +3700,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB246">
-            <v>358.92049999999995</v>
+            <v>361.55029999999988</v>
           </cell>
         </row>
         <row r="247">
@@ -3714,7 +3714,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB247">
-            <v>379.41479999999996</v>
+            <v>382.31979999999993</v>
           </cell>
         </row>
         <row r="248">
@@ -3728,7 +3728,7 @@
             <v>Buttigieg</v>
           </cell>
           <cell r="AB248">
-            <v>380.07589999999993</v>
+            <v>382.97339999999991</v>
           </cell>
         </row>
         <row r="249">
@@ -3742,7 +3742,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB249">
-            <v>2.2892000000000001</v>
+            <v>2.2930999999999999</v>
           </cell>
         </row>
         <row r="250">
@@ -3756,7 +3756,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB250">
-            <v>3.6227</v>
+            <v>3.5958999999999999</v>
           </cell>
         </row>
         <row r="251">
@@ -3770,7 +3770,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB251">
-            <v>5.5362999999999998</v>
+            <v>5.5247999999999999</v>
           </cell>
         </row>
         <row r="252">
@@ -3784,7 +3784,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB252">
-            <v>8.0302000000000007</v>
+            <v>7.9676999999999998</v>
           </cell>
         </row>
         <row r="253">
@@ -3798,7 +3798,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB253">
-            <v>88.377799999999993</v>
+            <v>88.785799999999981</v>
           </cell>
         </row>
         <row r="254">
@@ -3812,7 +3812,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB254">
-            <v>108.45880000000001</v>
+            <v>109.09119999999999</v>
           </cell>
         </row>
         <row r="255">
@@ -3826,7 +3826,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB255">
-            <v>108.8135</v>
+            <v>109.44549999999998</v>
           </cell>
         </row>
         <row r="256">
@@ -3840,7 +3840,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB256">
-            <v>141.26480000000004</v>
+            <v>141.8211</v>
           </cell>
         </row>
         <row r="257">
@@ -3854,7 +3854,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB257">
-            <v>147.73640000000003</v>
+            <v>148.31229999999999</v>
           </cell>
         </row>
         <row r="258">
@@ -3868,7 +3868,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB258">
-            <v>150.82150000000004</v>
+            <v>151.45169999999999</v>
           </cell>
         </row>
         <row r="259">
@@ -3882,7 +3882,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB259">
-            <v>157.13180000000006</v>
+            <v>157.91069999999999</v>
           </cell>
         </row>
         <row r="260">
@@ -3896,7 +3896,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB260">
-            <v>162.60560000000007</v>
+            <v>163.50489999999999</v>
           </cell>
         </row>
         <row r="261">
@@ -3910,7 +3910,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB261">
-            <v>196.22580000000005</v>
+            <v>196.65049999999999</v>
           </cell>
         </row>
         <row r="262">
@@ -3924,7 +3924,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB262">
-            <v>199.27200000000005</v>
+            <v>199.7242</v>
           </cell>
         </row>
         <row r="263">
@@ -3938,7 +3938,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB263">
-            <v>204.37810000000005</v>
+            <v>204.66810000000001</v>
           </cell>
         </row>
         <row r="264">
@@ -3952,7 +3952,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB264">
-            <v>207.93270000000004</v>
+            <v>208.1962</v>
           </cell>
         </row>
         <row r="265">
@@ -3966,7 +3966,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB265">
-            <v>214.95380000000003</v>
+            <v>215.4545</v>
           </cell>
         </row>
         <row r="266">
@@ -3980,7 +3980,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB266">
-            <v>226.42540000000002</v>
+            <v>226.79599999999999</v>
           </cell>
         </row>
         <row r="267">
@@ -3994,7 +3994,7 @@
             <v>Klobuchar</v>
           </cell>
           <cell r="AB267">
-            <v>226.90030000000002</v>
+            <v>227.2518</v>
           </cell>
         </row>
         <row r="268">
@@ -4008,7 +4008,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB268">
-            <v>7.1329000000000002</v>
+            <v>7.1778000000000004</v>
           </cell>
         </row>
         <row r="269">
@@ -4022,7 +4022,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB269">
-            <v>10.7813</v>
+            <v>10.915900000000001</v>
           </cell>
         </row>
         <row r="270">
@@ -4036,7 +4036,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB270">
-            <v>15.749600000000001</v>
+            <v>16.075299999999999</v>
           </cell>
         </row>
         <row r="271">
@@ -4050,7 +4050,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB271">
-            <v>21.780700000000003</v>
+            <v>22.2395</v>
           </cell>
         </row>
         <row r="272">
@@ -4064,7 +4064,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB272">
-            <v>243.81210000000002</v>
+            <v>249.2921</v>
           </cell>
         </row>
         <row r="273">
@@ -4078,7 +4078,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB273">
-            <v>301.02219999999994</v>
+            <v>307.68310000000002</v>
           </cell>
         </row>
         <row r="274">
@@ -4092,7 +4092,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB274">
-            <v>302.01219999999995</v>
+            <v>308.68890000000005</v>
           </cell>
         </row>
         <row r="275">
@@ -4106,7 +4106,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB275">
-            <v>395.14239999999995</v>
+            <v>403.78700000000009</v>
           </cell>
         </row>
         <row r="276">
@@ -4120,7 +4120,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB276">
-            <v>409.36079999999993</v>
+            <v>418.30330000000009</v>
           </cell>
         </row>
         <row r="277">
@@ -4134,7 +4134,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB277">
-            <v>417.71579999999994</v>
+            <v>426.7933000000001</v>
           </cell>
         </row>
         <row r="278">
@@ -4148,7 +4148,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB278">
-            <v>433.18669999999997</v>
+            <v>442.7469000000001</v>
           </cell>
         </row>
         <row r="279">
@@ -4162,7 +4162,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB279">
-            <v>451.69529999999997</v>
+            <v>461.38970000000012</v>
           </cell>
         </row>
         <row r="280">
@@ -4176,7 +4176,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB280">
-            <v>559.18659999999988</v>
+            <v>571.94010000000003</v>
           </cell>
         </row>
         <row r="281">
@@ -4190,7 +4190,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB281">
-            <v>565.4704999999999</v>
+            <v>578.38340000000005</v>
           </cell>
         </row>
         <row r="282">
@@ -4204,7 +4204,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB282">
-            <v>577.26099999999985</v>
+            <v>590.50070000000005</v>
           </cell>
         </row>
         <row r="283">
@@ -4218,7 +4218,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB283">
-            <v>584.09169999999983</v>
+            <v>597.59130000000005</v>
           </cell>
         </row>
         <row r="284">
@@ -4232,7 +4232,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB284">
-            <v>602.59689999999978</v>
+            <v>616.61869999999999</v>
           </cell>
         </row>
         <row r="285">
@@ -4246,7 +4246,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB285">
-            <v>640.48909999999978</v>
+            <v>655.47329999999999</v>
           </cell>
         </row>
         <row r="286">
@@ -4260,7 +4260,7 @@
             <v>Sanders</v>
           </cell>
           <cell r="AB286">
-            <v>641.59429999999975</v>
+            <v>656.60540000000003</v>
           </cell>
         </row>
         <row r="287">
@@ -4274,7 +4274,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB287">
-            <v>1.6460999999999999</v>
+            <v>1.8220000000000001</v>
           </cell>
         </row>
         <row r="288">
@@ -4288,7 +4288,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB288">
-            <v>2.7717000000000001</v>
+            <v>2.9958</v>
           </cell>
         </row>
         <row r="289">
@@ -4302,7 +4302,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB289">
-            <v>4.4594000000000005</v>
+            <v>4.8010999999999999</v>
           </cell>
         </row>
         <row r="290">
@@ -4316,7 +4316,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB290">
-            <v>6.6749000000000009</v>
+            <v>7.1276999999999999</v>
           </cell>
         </row>
         <row r="291">
@@ -4330,7 +4330,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB291">
-            <v>70.039599999999993</v>
+            <v>74.224199999999996</v>
           </cell>
         </row>
         <row r="292">
@@ -4344,7 +4344,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB292">
-            <v>85.8977</v>
+            <v>90.95450000000001</v>
           </cell>
         </row>
         <row r="293">
@@ -4358,7 +4358,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB293">
-            <v>86.187899999999999</v>
+            <v>91.261300000000006</v>
           </cell>
         </row>
         <row r="294">
@@ -4372,7 +4372,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB294">
-            <v>111.97839999999999</v>
+            <v>118.5106</v>
           </cell>
         </row>
         <row r="295">
@@ -4386,7 +4386,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB295">
-            <v>116.9127</v>
+            <v>123.66379999999999</v>
           </cell>
         </row>
         <row r="296">
@@ -4400,7 +4400,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB296">
-            <v>119.47370000000001</v>
+            <v>126.387</v>
           </cell>
         </row>
         <row r="297">
@@ -4414,7 +4414,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB297">
-            <v>124.6807</v>
+            <v>131.82759999999999</v>
           </cell>
         </row>
         <row r="298">
@@ -4428,7 +4428,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB298">
-            <v>128.6807</v>
+            <v>136.3631</v>
           </cell>
         </row>
         <row r="299">
@@ -4442,7 +4442,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB299">
-            <v>159.71520000000001</v>
+            <v>169.23560000000001</v>
           </cell>
         </row>
         <row r="300">
@@ -4456,7 +4456,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB300">
-            <v>162.09020000000001</v>
+            <v>171.73500000000001</v>
           </cell>
         </row>
         <row r="301">
@@ -4470,7 +4470,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB301">
-            <v>165.52600000000001</v>
+            <v>175.34400000000002</v>
           </cell>
         </row>
         <row r="302">
@@ -4484,7 +4484,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB302">
-            <v>168.43320000000003</v>
+            <v>178.46840000000003</v>
           </cell>
         </row>
         <row r="303">
@@ -4498,7 +4498,7 @@
             <v>Steyer</v>
           </cell>
           <cell r="AB303">
-            <v>174.41790000000003</v>
+            <v>184.71920000000003</v>
           </cell>
         </row>
         <row r="304">
@@ -4512,7 +4512,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB304">
-            <v>184.75880000000004</v>
+            <v>195.79750000000001</v>
           </cell>
         </row>
         <row r="305">
@@ -4526,7 +4526,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB305">
-            <v>185.16280000000003</v>
+            <v>196.22220000000002</v>
           </cell>
         </row>
         <row r="306">
@@ -4540,7 +4540,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB306">
-            <v>5.3940000000000001</v>
+            <v>5.3259999999999996</v>
           </cell>
         </row>
         <row r="307">
@@ -4554,7 +4554,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB307">
-            <v>8.1851000000000003</v>
+            <v>8.0919999999999987</v>
           </cell>
         </row>
         <row r="308">
@@ -4568,7 +4568,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB308">
-            <v>13.766999999999999</v>
+            <v>13.6968</v>
           </cell>
         </row>
         <row r="309">
@@ -4582,7 +4582,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB309">
-            <v>18.688199999999998</v>
+            <v>18.574300000000001</v>
           </cell>
         </row>
         <row r="310">
@@ -4596,7 +4596,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB310">
-            <v>193.68060000000003</v>
+            <v>191.8</v>
           </cell>
         </row>
         <row r="311">
@@ -4610,7 +4610,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB311">
-            <v>229.65040000000002</v>
+            <v>227.67249999999999</v>
           </cell>
         </row>
         <row r="312">
@@ -4624,7 +4624,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB312">
-            <v>230.29470000000001</v>
+            <v>228.32139999999998</v>
           </cell>
         </row>
         <row r="313">
@@ -4638,7 +4638,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB313">
-            <v>290.96870000000001</v>
+            <v>288.13679999999994</v>
           </cell>
         </row>
         <row r="314">
@@ -4652,7 +4652,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB314">
-            <v>301.18690000000004</v>
+            <v>298.14509999999996</v>
           </cell>
         </row>
         <row r="315">
@@ -4666,7 +4666,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB315">
-            <v>306.75180000000006</v>
+            <v>303.59929999999997</v>
           </cell>
         </row>
         <row r="316">
@@ -4680,7 +4680,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB316">
-            <v>317.90820000000002</v>
+            <v>314.6103</v>
           </cell>
         </row>
         <row r="317">
@@ -4694,7 +4694,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB317">
-            <v>328.9889</v>
+            <v>325.41570000000002</v>
           </cell>
         </row>
         <row r="318">
@@ -4708,7 +4708,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB318">
-            <v>410.18299999999999</v>
+            <v>405.90390000000008</v>
           </cell>
         </row>
         <row r="319">
@@ -4722,7 +4722,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB319">
-            <v>415.74379999999996</v>
+            <v>411.39350000000007</v>
           </cell>
         </row>
         <row r="320">
@@ -4736,7 +4736,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB320">
-            <v>422.70849999999996</v>
+            <v>418.40960000000007</v>
           </cell>
         </row>
         <row r="321">
@@ -4750,7 +4750,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB321">
-            <v>429.11449999999996</v>
+            <v>424.66810000000004</v>
           </cell>
         </row>
         <row r="322">
@@ -4764,7 +4764,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB322">
-            <v>440.24849999999998</v>
+            <v>435.74080000000004</v>
           </cell>
         </row>
         <row r="323">
@@ -4778,7 +4778,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB323">
-            <v>463.74299999999994</v>
+            <v>459.26060000000001</v>
           </cell>
         </row>
         <row r="324">
@@ -4792,7 +4792,7 @@
             <v>Warren</v>
           </cell>
           <cell r="AB324">
-            <v>464.51999999999992</v>
+            <v>460.02780000000001</v>
           </cell>
         </row>
         <row r="325">
@@ -4806,7 +4806,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB325">
-            <v>1.9511000000000001</v>
+            <v>2.0154000000000001</v>
           </cell>
         </row>
         <row r="326">
@@ -4820,7 +4820,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB326">
-            <v>3.222</v>
+            <v>3.3420000000000001</v>
           </cell>
         </row>
         <row r="327">
@@ -4834,7 +4834,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB327">
-            <v>5.3921999999999999</v>
+            <v>5.5291999999999994</v>
           </cell>
         </row>
         <row r="328">
@@ -4848,7 +4848,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB328">
-            <v>7.9337</v>
+            <v>8.1059000000000001</v>
           </cell>
         </row>
         <row r="329">
@@ -4862,7 +4862,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB329">
-            <v>84.530199999999994</v>
+            <v>84.657899999999984</v>
           </cell>
         </row>
         <row r="330">
@@ -4876,7 +4876,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB330">
-            <v>104.66770000000001</v>
+            <v>105.25729999999999</v>
           </cell>
         </row>
         <row r="331">
@@ -4890,7 +4890,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB331">
-            <v>105.00730000000001</v>
+            <v>105.59409999999998</v>
           </cell>
         </row>
         <row r="332">
@@ -4904,7 +4904,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB332">
-            <v>135.81390000000002</v>
+            <v>137.21399999999997</v>
           </cell>
         </row>
         <row r="333">
@@ -4918,7 +4918,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB333">
-            <v>141.25690000000003</v>
+            <v>142.65149999999997</v>
           </cell>
         </row>
         <row r="334">
@@ -4932,7 +4932,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB334">
-            <v>144.18050000000002</v>
+            <v>145.59219999999996</v>
           </cell>
         </row>
         <row r="335">
@@ -4946,7 +4946,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB335">
-            <v>150.37590000000003</v>
+            <v>151.85489999999996</v>
           </cell>
         </row>
         <row r="336">
@@ -4960,7 +4960,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB336">
-            <v>154.90130000000002</v>
+            <v>156.51169999999996</v>
           </cell>
         </row>
         <row r="337">
@@ -4974,7 +4974,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB337">
-            <v>191.79700000000003</v>
+            <v>193.9956</v>
           </cell>
         </row>
         <row r="338">
@@ -4988,7 +4988,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB338">
-            <v>194.32430000000002</v>
+            <v>196.58670000000001</v>
           </cell>
         </row>
         <row r="339">
@@ -5002,7 +5002,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB339">
-            <v>198.12990000000002</v>
+            <v>200.4778</v>
           </cell>
         </row>
         <row r="340">
@@ -5016,7 +5016,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB340">
-            <v>201.24830000000003</v>
+            <v>203.7458</v>
           </cell>
         </row>
         <row r="341">
@@ -5030,7 +5030,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB341">
-            <v>209.03990000000002</v>
+            <v>211.4367</v>
           </cell>
         </row>
         <row r="342">
@@ -5044,7 +5044,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB342">
-            <v>223.56110000000001</v>
+            <v>226.428</v>
           </cell>
         </row>
         <row r="343">
@@ -5058,7 +5058,7 @@
             <v>Yang</v>
           </cell>
           <cell r="AB343">
-            <v>224.01230000000001</v>
+            <v>226.8947</v>
           </cell>
         </row>
       </sheetData>
@@ -5387,7 +5387,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J5221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5197" workbookViewId="0">
+    <sheetView topLeftCell="A5197" workbookViewId="0">
       <selection activeCell="A5222" sqref="A5222"/>
     </sheetView>
   </sheetViews>
@@ -78563,8 +78563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF91DC9-99E2-664A-A8E5-631BDFB27AF4}">
   <dimension ref="A1:D343"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D343"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:D343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -81680,7 +81680,7 @@
       </c>
       <c r="D173">
         <f ca="1">[1]Sheet1!AB173</f>
-        <v>13.0382</v>
+        <v>12.9236</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -81698,7 +81698,7 @@
       </c>
       <c r="D174">
         <f ca="1">[1]Sheet1!AB174</f>
-        <v>21.7455</v>
+        <v>21.5456</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -81716,7 +81716,7 @@
       </c>
       <c r="D175">
         <f ca="1">[1]Sheet1!AB175</f>
-        <v>34.406399999999998</v>
+        <v>34.001599999999996</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -81734,7 +81734,7 @@
       </c>
       <c r="D176">
         <f ca="1">[1]Sheet1!AB176</f>
-        <v>61.114099999999993</v>
+        <v>60.473500000000001</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -81752,7 +81752,7 @@
       </c>
       <c r="D177">
         <f ca="1">[1]Sheet1!AB177</f>
-        <v>520.0868999999999</v>
+        <v>513.6644</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -81770,7 +81770,7 @@
       </c>
       <c r="D178">
         <f ca="1">[1]Sheet1!AB178</f>
-        <v>656.76179999999988</v>
+        <v>647.97900000000004</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -81788,7 +81788,7 @@
       </c>
       <c r="D179">
         <f ca="1">[1]Sheet1!AB179</f>
-        <v>658.94259999999986</v>
+        <v>650.11210000000005</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -81806,7 +81806,7 @@
       </c>
       <c r="D180">
         <f ca="1">[1]Sheet1!AB180</f>
-        <v>886.86819999999977</v>
+        <v>875.99630000000013</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -81824,7 +81824,7 @@
       </c>
       <c r="D181">
         <f ca="1">[1]Sheet1!AB181</f>
-        <v>930.68709999999976</v>
+        <v>919.33480000000009</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -81842,7 +81842,7 @@
       </c>
       <c r="D182">
         <f ca="1">[1]Sheet1!AB182</f>
-        <v>948.67699999999979</v>
+        <v>937.13690000000008</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -81860,7 +81860,7 @@
       </c>
       <c r="D183">
         <f ca="1">[1]Sheet1!AB183</f>
-        <v>988.97839999999985</v>
+        <v>976.8909000000001</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -81878,7 +81878,7 @@
       </c>
       <c r="D184">
         <f ca="1">[1]Sheet1!AB184</f>
-        <v>1013.2880999999999</v>
+        <v>1000.7169000000001</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -81896,7 +81896,7 @@
       </c>
       <c r="D185">
         <f ca="1">[1]Sheet1!AB185</f>
-        <v>1227.7143999999998</v>
+        <v>1212.2585000000001</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -81914,7 +81914,7 @@
       </c>
       <c r="D186">
         <f ca="1">[1]Sheet1!AB186</f>
-        <v>1243.8905</v>
+        <v>1228.2534000000001</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -81932,7 +81932,7 @@
       </c>
       <c r="D187">
         <f ca="1">[1]Sheet1!AB187</f>
-        <v>1273.2316000000001</v>
+        <v>1257.3738000000001</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -81950,7 +81950,7 @@
       </c>
       <c r="D188">
         <f ca="1">[1]Sheet1!AB188</f>
-        <v>1295.2610999999999</v>
+        <v>1279.0672000000002</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -81968,7 +81968,7 @@
       </c>
       <c r="D189">
         <f ca="1">[1]Sheet1!AB189</f>
-        <v>1334.9722999999999</v>
+        <v>1318.1577000000002</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -81986,7 +81986,7 @@
       </c>
       <c r="D190">
         <f ca="1">[1]Sheet1!AB190</f>
-        <v>1398.3144</v>
+        <v>1380.4918000000002</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -82004,7 +82004,7 @@
       </c>
       <c r="D191">
         <f ca="1">[1]Sheet1!AB191</f>
-        <v>1400.5622000000001</v>
+        <v>1382.7156000000002</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -82022,7 +82022,7 @@
       </c>
       <c r="D192">
         <f ca="1">[1]Sheet1!AB192</f>
-        <v>1.7141</v>
+        <v>1.7324999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -82040,7 +82040,7 @@
       </c>
       <c r="D193">
         <f ca="1">[1]Sheet1!AB193</f>
-        <v>2.8613999999999997</v>
+        <v>2.8419999999999996</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -82058,7 +82058,7 @@
       </c>
       <c r="D194">
         <f ca="1">[1]Sheet1!AB194</f>
-        <v>4.7368999999999994</v>
+        <v>4.5716000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -82076,7 +82076,7 @@
       </c>
       <c r="D195">
         <f ca="1">[1]Sheet1!AB195</f>
-        <v>7.3897999999999993</v>
+        <v>7.1615000000000002</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -82094,7 +82094,7 @@
       </c>
       <c r="D196">
         <f ca="1">[1]Sheet1!AB196</f>
-        <v>79.053700000000006</v>
+        <v>76.792300000000012</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -82112,7 +82112,7 @@
       </c>
       <c r="D197">
         <f ca="1">[1]Sheet1!AB197</f>
-        <v>96.521900000000002</v>
+        <v>93.6554</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -82130,7 +82130,7 @@
       </c>
       <c r="D198">
         <f ca="1">[1]Sheet1!AB198</f>
-        <v>96.841800000000006</v>
+        <v>93.950800000000001</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -82148,7 +82148,7 @@
       </c>
       <c r="D199">
         <f ca="1">[1]Sheet1!AB199</f>
-        <v>124.7107</v>
+        <v>120.30549999999999</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -82166,7 +82166,7 @@
       </c>
       <c r="D200">
         <f ca="1">[1]Sheet1!AB200</f>
-        <v>130.17179999999999</v>
+        <v>125.6447</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -82184,7 +82184,7 @@
       </c>
       <c r="D201">
         <f ca="1">[1]Sheet1!AB201</f>
-        <v>132.94409999999999</v>
+        <v>128.31299999999999</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -82202,7 +82202,7 @@
       </c>
       <c r="D202">
         <f ca="1">[1]Sheet1!AB202</f>
-        <v>139.13609999999997</v>
+        <v>134.28719999999998</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -82220,7 +82220,7 @@
       </c>
       <c r="D203">
         <f ca="1">[1]Sheet1!AB203</f>
-        <v>143.52829999999997</v>
+        <v>138.38399999999999</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -82238,7 +82238,7 @@
       </c>
       <c r="D204">
         <f ca="1">[1]Sheet1!AB204</f>
-        <v>191.9248</v>
+        <v>185.5795</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -82256,7 +82256,7 @@
       </c>
       <c r="D205">
         <f ca="1">[1]Sheet1!AB205</f>
-        <v>194.79930000000002</v>
+        <v>188.3426</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -82274,7 +82274,7 @@
       </c>
       <c r="D206">
         <f ca="1">[1]Sheet1!AB206</f>
-        <v>198.48180000000002</v>
+        <v>191.80180000000001</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -82292,7 +82292,7 @@
       </c>
       <c r="D207">
         <f ca="1">[1]Sheet1!AB207</f>
-        <v>201.92490000000001</v>
+        <v>195.07590000000002</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -82310,7 +82310,7 @@
       </c>
       <c r="D208">
         <f ca="1">[1]Sheet1!AB208</f>
-        <v>208.64080000000001</v>
+        <v>201.58630000000002</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -82328,7 +82328,7 @@
       </c>
       <c r="D209">
         <f ca="1">[1]Sheet1!AB209</f>
-        <v>220.50060000000002</v>
+        <v>212.61</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -82346,7 +82346,7 @@
       </c>
       <c r="D210">
         <f ca="1">[1]Sheet1!AB210</f>
-        <v>220.92020000000002</v>
+        <v>213.02130000000002</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -82364,7 +82364,7 @@
       </c>
       <c r="D211">
         <f ca="1">[1]Sheet1!AB211</f>
-        <v>2.0590999999999999</v>
+        <v>2.0291999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -82382,7 +82382,7 @@
       </c>
       <c r="D212">
         <f ca="1">[1]Sheet1!AB212</f>
-        <v>3.4397000000000002</v>
+        <v>3.4135999999999997</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -82400,7 +82400,7 @@
       </c>
       <c r="D213">
         <f ca="1">[1]Sheet1!AB213</f>
-        <v>5.3793000000000006</v>
+        <v>5.3900999999999994</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -82418,7 +82418,7 @@
       </c>
       <c r="D214">
         <f ca="1">[1]Sheet1!AB214</f>
-        <v>8.3382000000000005</v>
+        <v>8.3956999999999997</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -82436,7 +82436,7 @@
       </c>
       <c r="D215">
         <f ca="1">[1]Sheet1!AB215</f>
-        <v>83.551700000000011</v>
+        <v>83.166399999999996</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -82454,7 +82454,7 @@
       </c>
       <c r="D216">
         <f ca="1">[1]Sheet1!AB216</f>
-        <v>102.77809999999999</v>
+        <v>102.40889999999999</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -82472,7 +82472,7 @@
       </c>
       <c r="D217">
         <f ca="1">[1]Sheet1!AB217</f>
-        <v>103.14449999999999</v>
+        <v>102.77349999999998</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -82490,7 +82490,7 @@
       </c>
       <c r="D218">
         <f ca="1">[1]Sheet1!AB218</f>
-        <v>131.74719999999999</v>
+        <v>131.65519999999998</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -82508,7 +82508,7 @@
       </c>
       <c r="D219">
         <f ca="1">[1]Sheet1!AB219</f>
-        <v>138.41629999999998</v>
+        <v>138.29219999999998</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -82526,7 +82526,7 @@
       </c>
       <c r="D220">
         <f ca="1">[1]Sheet1!AB220</f>
-        <v>141.52609999999999</v>
+        <v>141.39699999999999</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -82544,7 +82544,7 @@
       </c>
       <c r="D221">
         <f ca="1">[1]Sheet1!AB221</f>
-        <v>148.10179999999997</v>
+        <v>147.92570000000001</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -82562,7 +82562,7 @@
       </c>
       <c r="D222">
         <f ca="1">[1]Sheet1!AB222</f>
-        <v>152.73089999999996</v>
+        <v>152.5453</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -82580,7 +82580,7 @@
       </c>
       <c r="D223">
         <f ca="1">[1]Sheet1!AB223</f>
-        <v>194.15769999999998</v>
+        <v>193.4015</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -82598,7 +82598,7 @@
       </c>
       <c r="D224">
         <f ca="1">[1]Sheet1!AB224</f>
-        <v>196.83829999999998</v>
+        <v>196.04650000000001</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -82616,7 +82616,7 @@
       </c>
       <c r="D225">
         <f ca="1">[1]Sheet1!AB225</f>
-        <v>200.66569999999999</v>
+        <v>199.7799</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -82634,7 +82634,7 @@
       </c>
       <c r="D226">
         <f ca="1">[1]Sheet1!AB226</f>
-        <v>204.3759</v>
+        <v>203.47199999999998</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -82652,7 +82652,7 @@
       </c>
       <c r="D227">
         <f ca="1">[1]Sheet1!AB227</f>
-        <v>211.99380000000002</v>
+        <v>210.98319999999998</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -82670,7 +82670,7 @@
       </c>
       <c r="D228">
         <f ca="1">[1]Sheet1!AB228</f>
-        <v>233.42260000000005</v>
+        <v>231.90979999999996</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -82688,7 +82688,7 @@
       </c>
       <c r="D229">
         <f ca="1">[1]Sheet1!AB229</f>
-        <v>233.90270000000004</v>
+        <v>232.39079999999996</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -82706,7 +82706,7 @@
       </c>
       <c r="D230" s="5">
         <f ca="1">[1]Sheet1!AB230</f>
-        <v>5.7264999999999997</v>
+        <v>5.6539000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -82724,7 +82724,7 @@
       </c>
       <c r="D231" s="5">
         <f ca="1">[1]Sheet1!AB231</f>
-        <v>8.3140000000000001</v>
+        <v>8.2080000000000002</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -82742,7 +82742,7 @@
       </c>
       <c r="D232" s="5">
         <f ca="1">[1]Sheet1!AB232</f>
-        <v>11.4907</v>
+        <v>11.3391</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -82760,7 +82760,7 @@
       </c>
       <c r="D233" s="5">
         <f ca="1">[1]Sheet1!AB233</f>
-        <v>14.956900000000001</v>
+        <v>14.855700000000001</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -82778,7 +82778,7 @@
       </c>
       <c r="D234" s="5">
         <f ca="1">[1]Sheet1!AB234</f>
-        <v>149.02699999999996</v>
+        <v>149.86699999999996</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -82796,7 +82796,7 @@
       </c>
       <c r="D235" s="5">
         <f ca="1">[1]Sheet1!AB235</f>
-        <v>178.15889999999999</v>
+        <v>179.45239999999995</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -82814,7 +82814,7 @@
       </c>
       <c r="D236" s="5">
         <f ca="1">[1]Sheet1!AB236</f>
-        <v>178.6883</v>
+        <v>179.99389999999997</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -82832,7 +82832,7 @@
       </c>
       <c r="D237" s="5">
         <f ca="1">[1]Sheet1!AB237</f>
-        <v>228.13140000000001</v>
+        <v>229.40109999999996</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -82850,7 +82850,7 @@
       </c>
       <c r="D238" s="5">
         <f ca="1">[1]Sheet1!AB238</f>
-        <v>235.82740000000001</v>
+        <v>237.42049999999995</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -82868,7 +82868,7 @@
       </c>
       <c r="D239" s="5">
         <f ca="1">[1]Sheet1!AB239</f>
-        <v>240.44510000000002</v>
+        <v>242.06249999999994</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -82886,7 +82886,7 @@
       </c>
       <c r="D240" s="5">
         <f ca="1">[1]Sheet1!AB240</f>
-        <v>249.97909999999999</v>
+        <v>251.64679999999993</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -82904,7 +82904,7 @@
       </c>
       <c r="D241" s="5">
         <f ca="1">[1]Sheet1!AB241</f>
-        <v>257.02319999999997</v>
+        <v>258.81739999999991</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -82922,7 +82922,7 @@
       </c>
       <c r="D242" s="5">
         <f ca="1">[1]Sheet1!AB242</f>
-        <v>324.9957</v>
+        <v>327.38569999999987</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -82940,7 +82940,7 @@
       </c>
       <c r="D243" s="5">
         <f ca="1">[1]Sheet1!AB243</f>
-        <v>329.47039999999998</v>
+        <v>331.89269999999988</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -82958,7 +82958,7 @@
       </c>
       <c r="D244" s="5">
         <f ca="1">[1]Sheet1!AB244</f>
-        <v>343.49109999999996</v>
+        <v>345.93999999999988</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -82976,7 +82976,7 @@
       </c>
       <c r="D245" s="5">
         <f ca="1">[1]Sheet1!AB245</f>
-        <v>348.45759999999996</v>
+        <v>350.9722999999999</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -82994,7 +82994,7 @@
       </c>
       <c r="D246" s="5">
         <f ca="1">[1]Sheet1!AB246</f>
-        <v>358.92049999999995</v>
+        <v>361.55029999999988</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -83012,7 +83012,7 @@
       </c>
       <c r="D247" s="5">
         <f ca="1">[1]Sheet1!AB247</f>
-        <v>379.41479999999996</v>
+        <v>382.31979999999993</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -83030,7 +83030,7 @@
       </c>
       <c r="D248" s="5">
         <f ca="1">[1]Sheet1!AB248</f>
-        <v>380.07589999999993</v>
+        <v>382.97339999999991</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -83048,7 +83048,7 @@
       </c>
       <c r="D249" s="5">
         <f ca="1">[1]Sheet1!AB249</f>
-        <v>2.2892000000000001</v>
+        <v>2.2930999999999999</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -83066,7 +83066,7 @@
       </c>
       <c r="D250" s="5">
         <f ca="1">[1]Sheet1!AB250</f>
-        <v>3.6227</v>
+        <v>3.5958999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -83084,7 +83084,7 @@
       </c>
       <c r="D251" s="5">
         <f ca="1">[1]Sheet1!AB251</f>
-        <v>5.5362999999999998</v>
+        <v>5.5247999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -83102,7 +83102,7 @@
       </c>
       <c r="D252" s="5">
         <f ca="1">[1]Sheet1!AB252</f>
-        <v>8.0302000000000007</v>
+        <v>7.9676999999999998</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -83120,7 +83120,7 @@
       </c>
       <c r="D253" s="5">
         <f ca="1">[1]Sheet1!AB253</f>
-        <v>88.377799999999993</v>
+        <v>88.785799999999981</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -83138,7 +83138,7 @@
       </c>
       <c r="D254" s="5">
         <f ca="1">[1]Sheet1!AB254</f>
-        <v>108.45880000000001</v>
+        <v>109.09119999999999</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -83156,7 +83156,7 @@
       </c>
       <c r="D255" s="5">
         <f ca="1">[1]Sheet1!AB255</f>
-        <v>108.8135</v>
+        <v>109.44549999999998</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -83174,7 +83174,7 @@
       </c>
       <c r="D256" s="5">
         <f ca="1">[1]Sheet1!AB256</f>
-        <v>141.26480000000004</v>
+        <v>141.8211</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -83192,7 +83192,7 @@
       </c>
       <c r="D257" s="5">
         <f ca="1">[1]Sheet1!AB257</f>
-        <v>147.73640000000003</v>
+        <v>148.31229999999999</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -83210,7 +83210,7 @@
       </c>
       <c r="D258" s="5">
         <f ca="1">[1]Sheet1!AB258</f>
-        <v>150.82150000000004</v>
+        <v>151.45169999999999</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -83228,7 +83228,7 @@
       </c>
       <c r="D259" s="5">
         <f ca="1">[1]Sheet1!AB259</f>
-        <v>157.13180000000006</v>
+        <v>157.91069999999999</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -83246,7 +83246,7 @@
       </c>
       <c r="D260" s="5">
         <f ca="1">[1]Sheet1!AB260</f>
-        <v>162.60560000000007</v>
+        <v>163.50489999999999</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -83264,7 +83264,7 @@
       </c>
       <c r="D261" s="5">
         <f ca="1">[1]Sheet1!AB261</f>
-        <v>196.22580000000005</v>
+        <v>196.65049999999999</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -83282,7 +83282,7 @@
       </c>
       <c r="D262" s="5">
         <f ca="1">[1]Sheet1!AB262</f>
-        <v>199.27200000000005</v>
+        <v>199.7242</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -83300,7 +83300,7 @@
       </c>
       <c r="D263" s="5">
         <f ca="1">[1]Sheet1!AB263</f>
-        <v>204.37810000000005</v>
+        <v>204.66810000000001</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -83318,7 +83318,7 @@
       </c>
       <c r="D264" s="5">
         <f ca="1">[1]Sheet1!AB264</f>
-        <v>207.93270000000004</v>
+        <v>208.1962</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -83336,7 +83336,7 @@
       </c>
       <c r="D265" s="5">
         <f ca="1">[1]Sheet1!AB265</f>
-        <v>214.95380000000003</v>
+        <v>215.4545</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -83354,7 +83354,7 @@
       </c>
       <c r="D266" s="5">
         <f ca="1">[1]Sheet1!AB266</f>
-        <v>226.42540000000002</v>
+        <v>226.79599999999999</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -83372,7 +83372,7 @@
       </c>
       <c r="D267" s="5">
         <f ca="1">[1]Sheet1!AB267</f>
-        <v>226.90030000000002</v>
+        <v>227.2518</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -83390,7 +83390,7 @@
       </c>
       <c r="D268" s="5">
         <f ca="1">[1]Sheet1!AB268</f>
-        <v>7.1329000000000002</v>
+        <v>7.1778000000000004</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -83408,7 +83408,7 @@
       </c>
       <c r="D269" s="5">
         <f ca="1">[1]Sheet1!AB269</f>
-        <v>10.7813</v>
+        <v>10.915900000000001</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -83426,7 +83426,7 @@
       </c>
       <c r="D270" s="5">
         <f ca="1">[1]Sheet1!AB270</f>
-        <v>15.749600000000001</v>
+        <v>16.075299999999999</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -83444,7 +83444,7 @@
       </c>
       <c r="D271" s="5">
         <f ca="1">[1]Sheet1!AB271</f>
-        <v>21.780700000000003</v>
+        <v>22.2395</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -83462,7 +83462,7 @@
       </c>
       <c r="D272" s="5">
         <f ca="1">[1]Sheet1!AB272</f>
-        <v>243.81210000000002</v>
+        <v>249.2921</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -83480,7 +83480,7 @@
       </c>
       <c r="D273" s="5">
         <f ca="1">[1]Sheet1!AB273</f>
-        <v>301.02219999999994</v>
+        <v>307.68310000000002</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -83498,7 +83498,7 @@
       </c>
       <c r="D274" s="5">
         <f ca="1">[1]Sheet1!AB274</f>
-        <v>302.01219999999995</v>
+        <v>308.68890000000005</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -83516,7 +83516,7 @@
       </c>
       <c r="D275" s="5">
         <f ca="1">[1]Sheet1!AB275</f>
-        <v>395.14239999999995</v>
+        <v>403.78700000000009</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -83534,7 +83534,7 @@
       </c>
       <c r="D276" s="5">
         <f ca="1">[1]Sheet1!AB276</f>
-        <v>409.36079999999993</v>
+        <v>418.30330000000009</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -83552,7 +83552,7 @@
       </c>
       <c r="D277" s="5">
         <f ca="1">[1]Sheet1!AB277</f>
-        <v>417.71579999999994</v>
+        <v>426.7933000000001</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -83570,7 +83570,7 @@
       </c>
       <c r="D278" s="5">
         <f ca="1">[1]Sheet1!AB278</f>
-        <v>433.18669999999997</v>
+        <v>442.7469000000001</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -83588,7 +83588,7 @@
       </c>
       <c r="D279" s="5">
         <f ca="1">[1]Sheet1!AB279</f>
-        <v>451.69529999999997</v>
+        <v>461.38970000000012</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -83606,7 +83606,7 @@
       </c>
       <c r="D280" s="5">
         <f ca="1">[1]Sheet1!AB280</f>
-        <v>559.18659999999988</v>
+        <v>571.94010000000003</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -83624,7 +83624,7 @@
       </c>
       <c r="D281" s="5">
         <f ca="1">[1]Sheet1!AB281</f>
-        <v>565.4704999999999</v>
+        <v>578.38340000000005</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -83642,7 +83642,7 @@
       </c>
       <c r="D282" s="5">
         <f ca="1">[1]Sheet1!AB282</f>
-        <v>577.26099999999985</v>
+        <v>590.50070000000005</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -83660,7 +83660,7 @@
       </c>
       <c r="D283" s="5">
         <f ca="1">[1]Sheet1!AB283</f>
-        <v>584.09169999999983</v>
+        <v>597.59130000000005</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -83678,7 +83678,7 @@
       </c>
       <c r="D284" s="5">
         <f ca="1">[1]Sheet1!AB284</f>
-        <v>602.59689999999978</v>
+        <v>616.61869999999999</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -83696,7 +83696,7 @@
       </c>
       <c r="D285" s="5">
         <f ca="1">[1]Sheet1!AB285</f>
-        <v>640.48909999999978</v>
+        <v>655.47329999999999</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -83714,7 +83714,7 @@
       </c>
       <c r="D286" s="5">
         <f ca="1">[1]Sheet1!AB286</f>
-        <v>641.59429999999975</v>
+        <v>656.60540000000003</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -83732,7 +83732,7 @@
       </c>
       <c r="D287" s="5">
         <f ca="1">[1]Sheet1!AB287</f>
-        <v>1.6460999999999999</v>
+        <v>1.8220000000000001</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -83750,7 +83750,7 @@
       </c>
       <c r="D288" s="5">
         <f ca="1">[1]Sheet1!AB288</f>
-        <v>2.7717000000000001</v>
+        <v>2.9958</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -83768,7 +83768,7 @@
       </c>
       <c r="D289" s="5">
         <f ca="1">[1]Sheet1!AB289</f>
-        <v>4.4594000000000005</v>
+        <v>4.8010999999999999</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -83786,7 +83786,7 @@
       </c>
       <c r="D290" s="5">
         <f ca="1">[1]Sheet1!AB290</f>
-        <v>6.6749000000000009</v>
+        <v>7.1276999999999999</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -83804,7 +83804,7 @@
       </c>
       <c r="D291" s="5">
         <f ca="1">[1]Sheet1!AB291</f>
-        <v>70.039599999999993</v>
+        <v>74.224199999999996</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -83822,7 +83822,7 @@
       </c>
       <c r="D292" s="5">
         <f ca="1">[1]Sheet1!AB292</f>
-        <v>85.8977</v>
+        <v>90.95450000000001</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -83840,7 +83840,7 @@
       </c>
       <c r="D293" s="5">
         <f ca="1">[1]Sheet1!AB293</f>
-        <v>86.187899999999999</v>
+        <v>91.261300000000006</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -83858,7 +83858,7 @@
       </c>
       <c r="D294" s="5">
         <f ca="1">[1]Sheet1!AB294</f>
-        <v>111.97839999999999</v>
+        <v>118.5106</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -83876,7 +83876,7 @@
       </c>
       <c r="D295" s="5">
         <f ca="1">[1]Sheet1!AB295</f>
-        <v>116.9127</v>
+        <v>123.66379999999999</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -83894,7 +83894,7 @@
       </c>
       <c r="D296" s="5">
         <f ca="1">[1]Sheet1!AB296</f>
-        <v>119.47370000000001</v>
+        <v>126.387</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -83912,7 +83912,7 @@
       </c>
       <c r="D297" s="5">
         <f ca="1">[1]Sheet1!AB297</f>
-        <v>124.6807</v>
+        <v>131.82759999999999</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -83930,7 +83930,7 @@
       </c>
       <c r="D298" s="5">
         <f ca="1">[1]Sheet1!AB298</f>
-        <v>128.6807</v>
+        <v>136.3631</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -83948,7 +83948,7 @@
       </c>
       <c r="D299" s="5">
         <f ca="1">[1]Sheet1!AB299</f>
-        <v>159.71520000000001</v>
+        <v>169.23560000000001</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -83966,7 +83966,7 @@
       </c>
       <c r="D300" s="5">
         <f ca="1">[1]Sheet1!AB300</f>
-        <v>162.09020000000001</v>
+        <v>171.73500000000001</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -83984,7 +83984,7 @@
       </c>
       <c r="D301" s="5">
         <f ca="1">[1]Sheet1!AB301</f>
-        <v>165.52600000000001</v>
+        <v>175.34400000000002</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -84002,7 +84002,7 @@
       </c>
       <c r="D302" s="5">
         <f ca="1">[1]Sheet1!AB302</f>
-        <v>168.43320000000003</v>
+        <v>178.46840000000003</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -84020,7 +84020,7 @@
       </c>
       <c r="D303" s="5">
         <f ca="1">[1]Sheet1!AB303</f>
-        <v>174.41790000000003</v>
+        <v>184.71920000000003</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -84038,7 +84038,7 @@
       </c>
       <c r="D304" s="5">
         <f ca="1">[1]Sheet1!AB304</f>
-        <v>184.75880000000004</v>
+        <v>195.79750000000001</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -84056,7 +84056,7 @@
       </c>
       <c r="D305" s="5">
         <f ca="1">[1]Sheet1!AB305</f>
-        <v>185.16280000000003</v>
+        <v>196.22220000000002</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -84074,7 +84074,7 @@
       </c>
       <c r="D306" s="5">
         <f ca="1">[1]Sheet1!AB306</f>
-        <v>5.3940000000000001</v>
+        <v>5.3259999999999996</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -84092,7 +84092,7 @@
       </c>
       <c r="D307" s="5">
         <f ca="1">[1]Sheet1!AB307</f>
-        <v>8.1851000000000003</v>
+        <v>8.0919999999999987</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -84110,7 +84110,7 @@
       </c>
       <c r="D308" s="5">
         <f ca="1">[1]Sheet1!AB308</f>
-        <v>13.766999999999999</v>
+        <v>13.6968</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -84128,7 +84128,7 @@
       </c>
       <c r="D309" s="5">
         <f ca="1">[1]Sheet1!AB309</f>
-        <v>18.688199999999998</v>
+        <v>18.574300000000001</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -84146,7 +84146,7 @@
       </c>
       <c r="D310" s="5">
         <f ca="1">[1]Sheet1!AB310</f>
-        <v>193.68060000000003</v>
+        <v>191.8</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -84164,7 +84164,7 @@
       </c>
       <c r="D311" s="5">
         <f ca="1">[1]Sheet1!AB311</f>
-        <v>229.65040000000002</v>
+        <v>227.67249999999999</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -84182,7 +84182,7 @@
       </c>
       <c r="D312" s="5">
         <f ca="1">[1]Sheet1!AB312</f>
-        <v>230.29470000000001</v>
+        <v>228.32139999999998</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -84200,7 +84200,7 @@
       </c>
       <c r="D313" s="5">
         <f ca="1">[1]Sheet1!AB313</f>
-        <v>290.96870000000001</v>
+        <v>288.13679999999994</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -84218,7 +84218,7 @@
       </c>
       <c r="D314" s="5">
         <f ca="1">[1]Sheet1!AB314</f>
-        <v>301.18690000000004</v>
+        <v>298.14509999999996</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -84236,7 +84236,7 @@
       </c>
       <c r="D315" s="5">
         <f ca="1">[1]Sheet1!AB315</f>
-        <v>306.75180000000006</v>
+        <v>303.59929999999997</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -84254,7 +84254,7 @@
       </c>
       <c r="D316" s="5">
         <f ca="1">[1]Sheet1!AB316</f>
-        <v>317.90820000000002</v>
+        <v>314.6103</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -84272,7 +84272,7 @@
       </c>
       <c r="D317" s="5">
         <f ca="1">[1]Sheet1!AB317</f>
-        <v>328.9889</v>
+        <v>325.41570000000002</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -84290,7 +84290,7 @@
       </c>
       <c r="D318" s="5">
         <f ca="1">[1]Sheet1!AB318</f>
-        <v>410.18299999999999</v>
+        <v>405.90390000000008</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -84308,7 +84308,7 @@
       </c>
       <c r="D319" s="5">
         <f ca="1">[1]Sheet1!AB319</f>
-        <v>415.74379999999996</v>
+        <v>411.39350000000007</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -84326,7 +84326,7 @@
       </c>
       <c r="D320" s="5">
         <f ca="1">[1]Sheet1!AB320</f>
-        <v>422.70849999999996</v>
+        <v>418.40960000000007</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -84344,7 +84344,7 @@
       </c>
       <c r="D321" s="5">
         <f ca="1">[1]Sheet1!AB321</f>
-        <v>429.11449999999996</v>
+        <v>424.66810000000004</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -84362,7 +84362,7 @@
       </c>
       <c r="D322" s="5">
         <f ca="1">[1]Sheet1!AB322</f>
-        <v>440.24849999999998</v>
+        <v>435.74080000000004</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -84380,7 +84380,7 @@
       </c>
       <c r="D323" s="5">
         <f ca="1">[1]Sheet1!AB323</f>
-        <v>463.74299999999994</v>
+        <v>459.26060000000001</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -84398,7 +84398,7 @@
       </c>
       <c r="D324" s="5">
         <f ca="1">[1]Sheet1!AB324</f>
-        <v>464.51999999999992</v>
+        <v>460.02780000000001</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -84416,7 +84416,7 @@
       </c>
       <c r="D325" s="4">
         <f ca="1">[1]Sheet1!AB325</f>
-        <v>1.9511000000000001</v>
+        <v>2.0154000000000001</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -84434,7 +84434,7 @@
       </c>
       <c r="D326" s="4">
         <f ca="1">[1]Sheet1!AB326</f>
-        <v>3.222</v>
+        <v>3.3420000000000001</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -84452,7 +84452,7 @@
       </c>
       <c r="D327" s="4">
         <f ca="1">[1]Sheet1!AB327</f>
-        <v>5.3921999999999999</v>
+        <v>5.5291999999999994</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -84470,7 +84470,7 @@
       </c>
       <c r="D328" s="4">
         <f ca="1">[1]Sheet1!AB328</f>
-        <v>7.9337</v>
+        <v>8.1059000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -84488,7 +84488,7 @@
       </c>
       <c r="D329" s="4">
         <f ca="1">[1]Sheet1!AB329</f>
-        <v>84.530199999999994</v>
+        <v>84.657899999999984</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -84506,7 +84506,7 @@
       </c>
       <c r="D330" s="4">
         <f ca="1">[1]Sheet1!AB330</f>
-        <v>104.66770000000001</v>
+        <v>105.25729999999999</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -84524,7 +84524,7 @@
       </c>
       <c r="D331" s="4">
         <f ca="1">[1]Sheet1!AB331</f>
-        <v>105.00730000000001</v>
+        <v>105.59409999999998</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -84542,7 +84542,7 @@
       </c>
       <c r="D332" s="4">
         <f ca="1">[1]Sheet1!AB332</f>
-        <v>135.81390000000002</v>
+        <v>137.21399999999997</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -84560,7 +84560,7 @@
       </c>
       <c r="D333" s="4">
         <f ca="1">[1]Sheet1!AB333</f>
-        <v>141.25690000000003</v>
+        <v>142.65149999999997</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -84578,7 +84578,7 @@
       </c>
       <c r="D334" s="4">
         <f ca="1">[1]Sheet1!AB334</f>
-        <v>144.18050000000002</v>
+        <v>145.59219999999996</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -84596,7 +84596,7 @@
       </c>
       <c r="D335" s="4">
         <f ca="1">[1]Sheet1!AB335</f>
-        <v>150.37590000000003</v>
+        <v>151.85489999999996</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -84614,7 +84614,7 @@
       </c>
       <c r="D336" s="4">
         <f ca="1">[1]Sheet1!AB336</f>
-        <v>154.90130000000002</v>
+        <v>156.51169999999996</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -84632,7 +84632,7 @@
       </c>
       <c r="D337" s="4">
         <f ca="1">[1]Sheet1!AB337</f>
-        <v>191.79700000000003</v>
+        <v>193.9956</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -84650,7 +84650,7 @@
       </c>
       <c r="D338" s="4">
         <f ca="1">[1]Sheet1!AB338</f>
-        <v>194.32430000000002</v>
+        <v>196.58670000000001</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -84668,7 +84668,7 @@
       </c>
       <c r="D339" s="4">
         <f ca="1">[1]Sheet1!AB339</f>
-        <v>198.12990000000002</v>
+        <v>200.4778</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -84686,7 +84686,7 @@
       </c>
       <c r="D340" s="4">
         <f ca="1">[1]Sheet1!AB340</f>
-        <v>201.24830000000003</v>
+        <v>203.7458</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -84704,7 +84704,7 @@
       </c>
       <c r="D341" s="4">
         <f ca="1">[1]Sheet1!AB341</f>
-        <v>209.03990000000002</v>
+        <v>211.4367</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -84722,7 +84722,7 @@
       </c>
       <c r="D342" s="4">
         <f ca="1">[1]Sheet1!AB342</f>
-        <v>223.56110000000001</v>
+        <v>226.428</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -84740,7 +84740,7 @@
       </c>
       <c r="D343" s="4">
         <f ca="1">[1]Sheet1!AB343</f>
-        <v>224.01230000000001</v>
+        <v>226.8947</v>
       </c>
     </row>
   </sheetData>
